--- a/target/classes/Statistics.xlsx
+++ b/target/classes/Statistics.xlsx
@@ -67,13 +67,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="12.0"/>
+      <b val="true"/>
     </font>
   </fonts>
   <fills count="2">
@@ -96,8 +101,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>

--- a/target/classes/Statistics.xlsx
+++ b/target/classes/Statistics.xlsx
@@ -29,6 +29,24 @@
     <t>Названия университетов</t>
   </si>
   <si>
+    <t>MATHEMATICS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Казанский Университет Вычислений</t>
+  </si>
+  <si>
+    <t>PHYSICS</t>
+  </si>
+  <si>
+    <t>4.54</t>
+  </si>
+  <si>
+    <t>Московский Придуманный Институт, Московский Выдуманный Университет</t>
+  </si>
+  <si>
     <t>MEDICINE</t>
   </si>
   <si>
@@ -36,24 +54,6 @@
   </si>
   <si>
     <t>Самарский Медицинский Институт, Московский Государственный Медицинский Университет, Тамбовский Университет Медицины</t>
-  </si>
-  <si>
-    <t>PHYSICS</t>
-  </si>
-  <si>
-    <t>4.54</t>
-  </si>
-  <si>
-    <t>Московский Придуманный Институт, Московский Выдуманный Университет</t>
-  </si>
-  <si>
-    <t>MATHEMATICS</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Казанский Университет Вычислений</t>
   </si>
   <si>
     <t>LINGUISTICS</t>
@@ -116,7 +116,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1">
+    <row r="1" s="1" customFormat="true">
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
@@ -141,10 +141,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>7</v>
@@ -175,10 +175,10 @@
         <v>12</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>13</v>
@@ -189,7 +189,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n" s="0">
         <v>0.0</v>

--- a/target/classes/Statistics.xlsx
+++ b/target/classes/Statistics.xlsx
@@ -29,37 +29,37 @@
     <t>Названия университетов</t>
   </si>
   <si>
+    <t>LINGUISTICS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Воронежский Литературно-Переводческий Университет</t>
+  </si>
+  <si>
+    <t>MEDICINE</t>
+  </si>
+  <si>
+    <t>4.33</t>
+  </si>
+  <si>
+    <t>Самарский Медицинский Институт, Московский Государственный Медицинский Университет, Тамбовский Университет Медицины</t>
+  </si>
+  <si>
+    <t>PHYSICS</t>
+  </si>
+  <si>
+    <t>4.54</t>
+  </si>
+  <si>
+    <t>Московский Придуманный Институт, Московский Выдуманный Университет</t>
+  </si>
+  <si>
     <t>MATHEMATICS</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>Казанский Университет Вычислений</t>
-  </si>
-  <si>
-    <t>PHYSICS</t>
-  </si>
-  <si>
-    <t>4.54</t>
-  </si>
-  <si>
-    <t>Московский Придуманный Институт, Московский Выдуманный Университет</t>
-  </si>
-  <si>
-    <t>MEDICINE</t>
-  </si>
-  <si>
-    <t>4.33</t>
-  </si>
-  <si>
-    <t>Самарский Медицинский Институт, Московский Государственный Медицинский Университет, Тамбовский Университет Медицины</t>
-  </si>
-  <si>
-    <t>LINGUISTICS</t>
-  </si>
-  <si>
-    <t>Воронежский Литературно-Переводческий Университет</t>
   </si>
 </sst>
 </file>
@@ -117,87 +117,87 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1" s="1" customFormat="true">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="n" s="0">
+      <c r="C2" t="n">
         <v>0.0</v>
       </c>
-      <c r="D2" t="n" s="0">
+      <c r="D2" t="n">
         <v>1.0</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="n" s="0">
+      <c r="C3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="n">
         <v>8.0</v>
       </c>
-      <c r="D3" t="n" s="0">
+      <c r="D4" t="n">
         <v>2.0</v>
       </c>
-      <c r="E3" t="s" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="C4" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="D4" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="E4" t="s" s="0">
+      <c r="E4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="n" s="0">
+      <c r="C5" t="n">
         <v>0.0</v>
       </c>
-      <c r="D5" t="n" s="0">
+      <c r="D5" t="n">
         <v>1.0</v>
       </c>
-      <c r="E5" t="s" s="0">
+      <c r="E5" t="s">
         <v>15</v>
       </c>
     </row>

--- a/target/classes/Statistics.xlsx
+++ b/target/classes/Statistics.xlsx
@@ -29,6 +29,15 @@
     <t>Названия университетов</t>
   </si>
   <si>
+    <t>MEDICINE</t>
+  </si>
+  <si>
+    <t>4.33</t>
+  </si>
+  <si>
+    <t>Самарский Медицинский Институт, Московский Государственный Медицинский Университет, Тамбовский Университет Медицины</t>
+  </si>
+  <si>
     <t>LINGUISTICS</t>
   </si>
   <si>
@@ -38,13 +47,10 @@
     <t>Воронежский Литературно-Переводческий Университет</t>
   </si>
   <si>
-    <t>MEDICINE</t>
-  </si>
-  <si>
-    <t>4.33</t>
-  </si>
-  <si>
-    <t>Самарский Медицинский Институт, Московский Государственный Медицинский Университет, Тамбовский Университет Медицины</t>
+    <t>MATHEMATICS</t>
+  </si>
+  <si>
+    <t>Казанский Университет Вычислений</t>
   </si>
   <si>
     <t>PHYSICS</t>
@@ -54,12 +60,6 @@
   </si>
   <si>
     <t>Московский Придуманный Институт, Московский Выдуманный Университет</t>
-  </si>
-  <si>
-    <t>MATHEMATICS</t>
-  </si>
-  <si>
-    <t>Казанский Университет Вычислений</t>
   </si>
 </sst>
 </file>
@@ -117,87 +117,87 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1" s="1" customFormat="true">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C3" t="n" s="0">
         <v>0.0</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C3" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="E4" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C4" t="n">
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C5" t="n" s="0">
         <v>8.0</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
         <v>15</v>
       </c>
     </row>
